--- a/biology/Zoologie/Charonia_lampas/Charonia_lampas.xlsx
+++ b/biology/Zoologie/Charonia_lampas/Charonia_lampas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charonia lampas est une espèce de conques.
 C'est un coquillage très répandu dans les mers chaudes (sauf en Amérique), un géant parmi les coquillages.
-Ce coquillage a été utilisé comme trompe sonore pendant la préhistoire, à la fin de l'âge de glace, il y a 17 000 ans[5] ... puis pendant l'antiquité[6].
+Ce coquillage a été utilisé comme trompe sonore pendant la préhistoire, à la fin de l'âge de glace, il y a 17 000 ans ... puis pendant l'antiquité.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Triton à bosses (Charonia lampas, Linné 1758 ; aussi rencontré sous la terminologie Charonia nodifera Lamarck 1822, Charonia lampas rubicunda Perry 1811 ou Charonia lampas sauliae Reeve 1844).
 </t>
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il peut atteindre 210 mm voire près de 40 cm[réf. nécessaire].
 </t>
@@ -575,7 +591,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Mer Méditerranée occidentale ; océans Atlantique, Indien et Pacifique, jusqu'à 200 m de profondeur.</t>
         </is>
@@ -605,9 +623,11 @@
           <t>Liste des sous-espèces et espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (12 décembre 2017)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (12 décembre 2017) :
 sous-espèce Charonia lampas capax (Finlay, 1927)
 sous-espèce Charonia lampas lampas (Linnaeus, 1758)
 sous-espèce Charonia lampas macilenta J.T. Kuroda &amp; T. Habe, 1961
@@ -617,7 +637,7 @@
 Charonia lampas rubicunda powelli B.C. Cotton, 1956
 sous-espèce Charonia lampas sauliae (Reeve, 1844)
 sous-espèce Charonia lampas weisbordi J. Gibson-Smith, 1976
-Selon BioLib                    (12 décembre 2017)[4] :
+Selon BioLib                    (12 décembre 2017) :
 Charonia lampas rubicunda powelli B.C. Cotton, 1956</t>
         </is>
       </c>
